--- a/Benchmarks_training/Aignment_numeric2numeric_GPT2-large.xlsx
+++ b/Benchmarks_training/Aignment_numeric2numeric_GPT2-large.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamid/LLM_Numeric_inputs/Benchmarks_training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833ACB5F-0ABD-3744-99B0-93FF1DE438BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71677B1F-3704-5D4A-A76E-DFE6022C6A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15080" xr2:uid="{8E015E65-DB55-7B42-AE1B-57B283DC0EEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>self alignment</t>
   </si>
@@ -57,16 +57,32 @@
   </si>
   <si>
     <t>Time/Iteration</t>
+  </si>
+  <si>
+    <t>ADAM LR</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>lr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,15 +425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3AD263-487F-9147-8497-CEB3EF2E9533}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +452,17 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -456,8 +482,29 @@
         <f>D2/B2</f>
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>3349.8373999999999</v>
+      </c>
+      <c r="M2">
+        <v>1E-3</v>
+      </c>
+      <c r="O2">
+        <v>3141.1127999999999</v>
+      </c>
+      <c r="P2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Q2">
+        <v>4024.1086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>7</v>
       </c>
@@ -474,26 +521,53 @@
         <f>D3/B3</f>
         <v>4.8571428571428568</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B4">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2484.7847999999999</v>
+      </c>
+      <c r="O3">
+        <v>2743.5805</v>
+      </c>
+      <c r="Q3">
+        <v>3155.3631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.01</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>38</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>77</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
         <f>D4/B4</f>
         <v>4.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1"/>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>716.81880000000001</v>
+      </c>
+      <c r="O4">
+        <v>1783.7449999999999</v>
+      </c>
+      <c r="Q4">
+        <v>2617.0378000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4</v>
       </c>
@@ -509,6 +583,102 @@
       <c r="G5">
         <f>D5/B5</f>
         <v>5</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>898.52930000000003</v>
+      </c>
+      <c r="O5">
+        <v>1598.7864</v>
+      </c>
+      <c r="Q5">
+        <v>3243.6878999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>942.08219999999994</v>
+      </c>
+      <c r="O6">
+        <v>1217.4263000000001</v>
+      </c>
+      <c r="Q6">
+        <v>2386.9238999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>920.96370000000002</v>
+      </c>
+      <c r="O7">
+        <v>928.22220000000004</v>
+      </c>
+      <c r="Q7">
+        <v>1718.1701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>919.42700000000002</v>
+      </c>
+      <c r="O8">
+        <v>880.26030000000003</v>
+      </c>
+      <c r="Q8">
+        <v>1875.1687999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>932.96849999999995</v>
+      </c>
+      <c r="O9">
+        <v>948.52520000000004</v>
+      </c>
+      <c r="Q9">
+        <v>1575.3543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>692.48130000000003</v>
+      </c>
+      <c r="O10">
+        <v>975.47069999999997</v>
+      </c>
+      <c r="Q10">
+        <v>1635.6573000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>808.81420000000003</v>
+      </c>
+      <c r="O11">
+        <v>730</v>
+      </c>
+      <c r="Q11">
+        <v>1765.5567000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmarks_training/Aignment_numeric2numeric_GPT2-large.xlsx
+++ b/Benchmarks_training/Aignment_numeric2numeric_GPT2-large.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamid/LLM_Numeric_inputs/Benchmarks_training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71677B1F-3704-5D4A-A76E-DFE6022C6A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADA5A06-9430-BA4F-A2F5-FD3050341654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="15080" xr2:uid="{8E015E65-DB55-7B42-AE1B-57B283DC0EEC}"/>
+    <workbookView xWindow="1580" yWindow="1940" windowWidth="26840" windowHeight="15080" xr2:uid="{8E015E65-DB55-7B42-AE1B-57B283DC0EEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -126,6 +126,2280 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F40E-1F4A-850D-FFAADA9E3797}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="218221296"/>
+        <c:axId val="218899728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="218221296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="218899728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="218899728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="218221296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Memory</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Cua (GB) vs Batch Size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20745822397200353"/>
+          <c:y val="8.3333333333333329E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C6EA-B24E-BB44-C8ED446A42B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6EA-B24E-BB44-C8ED446A42B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="192892160"/>
+        <c:axId val="224197072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="192892160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224197072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="224197072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="192892160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Time/Iteration</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2DF-F940-8573-5E331754E4B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="220746208"/>
+        <c:axId val="190239888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="220746208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190239888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="190239888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220746208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4F7E25-486D-256C-4E6A-BD995A180187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8640E3A6-9B30-CF4E-E2EC-8B19BA4B5EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AF2624-66C4-3D09-1891-BEB2C6C35C1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,7 +2702,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="K8" sqref="K8:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,5 +2957,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Benchmarks_training/Aignment_numeric2numeric_GPT2-large.xlsx
+++ b/Benchmarks_training/Aignment_numeric2numeric_GPT2-large.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamid/LLM_Numeric_inputs/Benchmarks_training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADA5A06-9430-BA4F-A2F5-FD3050341654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0931231-62EE-F546-B0C8-7242D40BACCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="1940" windowWidth="26840" windowHeight="15080" xr2:uid="{8E015E65-DB55-7B42-AE1B-57B283DC0EEC}"/>
   </bookViews>
@@ -1177,6 +1177,1047 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3349.8373999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2484.7847999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>716.81880000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>898.52930000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>942.08219999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>920.96370000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>919.42700000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>932.96849999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>692.48130000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>808.81420000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-027B-2F4E-94C0-1A57A4FC2433}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="260885424"/>
+        <c:axId val="260371248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="260885424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260371248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="260371248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260885424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3141.1127999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2743.5805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1783.7449999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1598.7864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1217.4263000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>928.22220000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>880.26030000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>948.52520000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>975.47069999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>730</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E29-6F40-9769-119611D2A413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261734368"/>
+        <c:axId val="261183808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261734368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261183808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261183808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261734368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4024.1086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3155.3631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2617.0378000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3243.6878999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2386.9238999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1718.1701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1875.1687999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1575.3543</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1635.6573000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1765.5567000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74AD-8645-A26E-5CAE79DF2389}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262582624"/>
+        <c:axId val="262788736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262582624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262788736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262788736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="262582624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1257,6 +2298,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1774,6 +2935,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2330,15 +5039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86783</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474133</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>188383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2365,16 +5074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213783</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>658284</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>61383</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2394,6 +5103,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>795866</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>389466</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBB38B2-478C-F8E0-52E7-F0406D4CC8FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>50799</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>474132</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6568EB-108C-4F5D-E745-2D430D7D1F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9609CB06-4801-0541-FCC0-A9306A9A4152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2701,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3AD263-487F-9147-8497-CEB3EF2E9533}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8:P11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q2" activeCellId="1" sqref="K2:K11 Q2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
